--- a/output_table/final_out_gs_glt.xlsx
+++ b/output_table/final_out_gs_glt.xlsx
@@ -15,69 +15,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
-  <si>
-    <t>Контроль</t>
-  </si>
-  <si>
-    <t>ЭС</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Percintile</t>
-  </si>
-  <si>
-    <t>gs_vol</t>
-  </si>
-  <si>
-    <t>num_clust</t>
-  </si>
-  <si>
-    <t>surf_clust</t>
-  </si>
-  <si>
-    <t>svr_glt</t>
-  </si>
-  <si>
-    <t>vf_clust</t>
-  </si>
-  <si>
-    <t>vol_clusters</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Stats</t>
-  </si>
-  <si>
-    <t>p_cell_vol</t>
-  </si>
-  <si>
-    <t>p_clust_num</t>
-  </si>
-  <si>
-    <t>p_ks_test</t>
-  </si>
-  <si>
-    <t>p_surf_clust</t>
-  </si>
-  <si>
-    <t>p_svr</t>
-  </si>
-  <si>
-    <t>p_vf_clust</t>
-  </si>
-  <si>
-    <t>p_vol_clust</t>
-  </si>
-  <si>
-    <t>P-val</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+  <si>
+    <t>ctrl</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>num_clusters</t>
+  </si>
+  <si>
+    <t>svr_clusters</t>
+  </si>
+  <si>
+    <t>vf_gs</t>
+  </si>
+  <si>
+    <t>p-value</t>
   </si>
   <si>
     <t>MW(U)</t>
+  </si>
+  <si>
+    <t>clust_num</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ks_test</t>
+  </si>
+  <si>
+    <t>svr_num</t>
   </si>
 </sst>
 </file>
@@ -435,19 +402,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,16 +418,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>0.25</v>
       </c>
       <c r="C2">
-        <v>0.24</v>
+        <v>54.77</v>
       </c>
       <c r="D2">
-        <v>0.12</v>
+        <v>53.61</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -475,10 +436,10 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>0.3</v>
+        <v>57.18</v>
       </c>
       <c r="D3">
-        <v>0.14</v>
+        <v>58.48</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -487,24 +448,24 @@
         <v>0.75</v>
       </c>
       <c r="C4">
-        <v>0.39</v>
+        <v>66.06999999999999</v>
       </c>
       <c r="D4">
-        <v>0.2</v>
+        <v>61.4</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>0.25</v>
       </c>
       <c r="C5">
-        <v>48.05</v>
+        <v>10.72</v>
       </c>
       <c r="D5">
-        <v>62.24</v>
+        <v>10.89</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -513,10 +474,10 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>51.08</v>
+        <v>10.87</v>
       </c>
       <c r="D6">
-        <v>66.26000000000001</v>
+        <v>11.22</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -525,24 +486,24 @@
         <v>0.75</v>
       </c>
       <c r="C7">
-        <v>52.82</v>
+        <v>11.59</v>
       </c>
       <c r="D7">
-        <v>73.06999999999999</v>
+        <v>11.96</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1">
         <v>0.25</v>
       </c>
       <c r="C8">
-        <v>0.06</v>
+        <v>0.25</v>
       </c>
       <c r="D8">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -551,10 +512,10 @@
         <v>0.5</v>
       </c>
       <c r="C9">
-        <v>0.07000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="D9">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -563,134 +524,17 @@
         <v>0.75</v>
       </c>
       <c r="C10">
-        <v>0.07000000000000001</v>
+        <v>0.39</v>
       </c>
       <c r="D10">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="C11">
-        <v>0.34</v>
-      </c>
-      <c r="D11">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C12">
-        <v>0.35</v>
-      </c>
-      <c r="D12">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="C13">
-        <v>0.36</v>
-      </c>
-      <c r="D13">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="C14">
-        <v>0.18</v>
-      </c>
-      <c r="D14">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C15">
-        <v>0.19</v>
-      </c>
-      <c r="D15">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="C16">
-        <v>0.2</v>
-      </c>
-      <c r="D16">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="C17">
-        <v>0.23</v>
-      </c>
-      <c r="D17">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C18">
-        <v>0.38</v>
-      </c>
-      <c r="D18">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="C19">
-        <v>0.59</v>
-      </c>
-      <c r="D19">
-        <v>0.52</v>
+        <v>0.24</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="3">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -698,173 +542,65 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>0.8742440113</v>
       </c>
       <c r="C2">
-        <v>0.0001480759</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>295</v>
+        <v>0.0367276669</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>0.2679091891</v>
       </c>
       <c r="C4">
-        <v>1.54E-07</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.0045584391</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7">
-        <v>0.07001479839999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8">
-        <v>0.003617366</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10">
-        <v>4.6962E-06</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12">
-        <v>0.0010142188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15">
-        <v>1024976163</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output_table/final_out_gs_glt.xlsx
+++ b/output_table/final_out_gs_glt.xlsx
@@ -29,7 +29,7 @@
     <t>svr_clusters</t>
   </si>
   <si>
-    <t>vf_gs</t>
+    <t>vf_cell</t>
   </si>
   <si>
     <t>p-value</t>
